--- a/spiral.xlsx
+++ b/spiral.xlsx
@@ -101,8 +101,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -189,7 +193,7 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -227,6 +231,8 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -264,6 +270,8 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1164,7 +1172,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
